--- a/data/trans_orig/KIDMED_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84766B21-3D0D-40ED-8024-29EB6CBD20C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A336091F-3846-4A68-9F4C-EC5B00AF0B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75CE37AD-483F-4356-9F30-DB848BBD1B1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA7D7FEA-D726-4027-9A9C-08FB2FF67E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>Media</t>
@@ -104,28 +104,28 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>Baja</t>
@@ -134,10 +134,10 @@
     <t>5,55%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,160 +167,163 @@
     <t>69,01%</t>
   </si>
   <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
     <t>63,17%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -329,88 +332,88 @@
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>36,69%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>38,95%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>67,32%</t>
@@ -419,70 +422,64 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>31,33%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -897,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6566B-4D9E-4159-9E16-CC62DBDA68F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6830A-B18F-442D-B27B-7E1D82935374}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1448,13 +1445,13 @@
         <v>111256</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>312</v>
@@ -1463,13 +1460,13 @@
         <v>247319</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,13 +1481,13 @@
         <v>63010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -1499,13 +1496,13 @@
         <v>60017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -1514,13 +1511,13 @@
         <v>123027</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,13 +1532,13 @@
         <v>3405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1550,13 +1547,13 @@
         <v>4840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1565,13 +1562,13 @@
         <v>8245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,7 +1624,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1639,13 +1636,13 @@
         <v>170621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -1654,13 +1651,13 @@
         <v>147145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>406</v>
@@ -1669,13 +1666,13 @@
         <v>317767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,13 +1687,13 @@
         <v>106024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>129</v>
@@ -1705,13 +1702,13 @@
         <v>101054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>246</v>
@@ -1720,13 +1717,13 @@
         <v>207078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,13 +1738,13 @@
         <v>12349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -1756,13 +1753,13 @@
         <v>11239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -1771,13 +1768,13 @@
         <v>23588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1842,13 @@
         <v>452848</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>580</v>
@@ -1860,10 +1857,10 @@
         <v>402002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>128</v>
@@ -1896,13 +1893,13 @@
         <v>233236</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>311</v>
@@ -1911,13 +1908,13 @@
         <v>221745</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
@@ -1926,13 +1923,13 @@
         <v>454981</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1944,13 @@
         <v>23250</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -1962,13 +1959,13 @@
         <v>16862</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -1977,13 +1974,13 @@
         <v>40112</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2036,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDMED_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A336091F-3846-4A68-9F4C-EC5B00AF0B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E3D364-BFF6-45E2-B365-4307817334F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA7D7FEA-D726-4027-9A9C-08FB2FF67E2B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{52559DE8-48DC-4CEC-B8D5-06469D0233D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,415 +71,421 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -894,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6830A-B18F-442D-B27B-7E1D82935374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD058B1-BF9E-40D9-9E61-BCA6F059439C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1012,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>25583</v>
+        <v>30068</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1027,10 +1033,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>30650</v>
+        <v>26442</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1045,7 +1051,7 @@
         <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>56232</v>
+        <v>56510</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1066,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>15167</v>
+        <v>16031</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1081,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>15251</v>
+        <v>16320</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1096,7 +1102,7 @@
         <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>30418</v>
+        <v>32351</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1114,10 +1120,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2394</v>
+        <v>396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1129,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>391</v>
+        <v>2522</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1147,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>2786</v>
+        <v>2918</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1165,25 +1171,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>81</v>
       </c>
-      <c r="D7" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>83</v>
-      </c>
       <c r="I7" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1198,7 +1204,7 @@
         <v>164</v>
       </c>
       <c r="N7" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1218,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7">
-        <v>120581</v>
+        <v>112918</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1233,10 +1239,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I8" s="7">
-        <v>112951</v>
+        <v>123640</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1251,7 +1257,7 @@
         <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>233532</v>
+        <v>236559</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1269,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>49035</v>
+        <v>45991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1284,10 +1290,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I9" s="7">
-        <v>45422</v>
+        <v>53027</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1302,7 +1308,7 @@
         <v>156</v>
       </c>
       <c r="N9" s="7">
-        <v>94457</v>
+        <v>99019</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1320,31 +1326,31 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>5101</v>
+        <v>389</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5292</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>392</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>64</v>
@@ -1353,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>5493</v>
+        <v>5682</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1371,25 +1377,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>275</v>
       </c>
-      <c r="D11" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1404,7 +1410,7 @@
         <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1424,10 +1430,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D12" s="7">
-        <v>136063</v>
+        <v>106362</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -1439,10 +1445,10 @@
         <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>111256</v>
+        <v>141029</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -1457,7 +1463,7 @@
         <v>312</v>
       </c>
       <c r="N12" s="7">
-        <v>247319</v>
+        <v>247392</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>75</v>
@@ -1475,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>63010</v>
+        <v>61922</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -1490,10 +1496,10 @@
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>60017</v>
+        <v>67947</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1508,7 +1514,7 @@
         <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>123027</v>
+        <v>129869</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1526,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>3405</v>
+        <v>4788</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1541,10 +1547,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>4840</v>
+        <v>3514</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1559,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>8245</v>
+        <v>8302</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1577,25 +1583,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1610,7 +1616,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1630,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>170621</v>
+        <v>141714</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1645,10 +1651,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I16" s="7">
-        <v>147145</v>
+        <v>170126</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -1663,7 +1669,7 @@
         <v>406</v>
       </c>
       <c r="N16" s="7">
-        <v>317767</v>
+        <v>311839</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -1681,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>106024</v>
+        <v>121573</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -1696,34 +1702,34 @@
         <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>101054</v>
+        <v>121672</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>246</v>
       </c>
       <c r="N17" s="7">
-        <v>207078</v>
+        <v>243244</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,49 +1738,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10981</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
-        <v>12349</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>13201</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11239</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>23588</v>
+        <v>24182</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1792,7 @@
         <v>341</v>
       </c>
       <c r="D19" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1801,7 +1807,7 @@
         <v>341</v>
       </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1816,7 +1822,7 @@
         <v>682</v>
       </c>
       <c r="N19" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1836,31 +1842,31 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>580</v>
+      </c>
+      <c r="D20" s="7">
+        <v>391062</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
         <v>607</v>
       </c>
-      <c r="D20" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>461237</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>580</v>
-      </c>
-      <c r="I20" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>128</v>
@@ -1869,7 +1875,7 @@
         <v>1187</v>
       </c>
       <c r="N20" s="7">
-        <v>854850</v>
+        <v>852300</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>129</v>
@@ -1887,49 +1893,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>311</v>
+      </c>
+      <c r="D21" s="7">
+        <v>245518</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="7">
         <v>303</v>
       </c>
-      <c r="D21" s="7">
-        <v>233236</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="7">
-        <v>311</v>
-      </c>
       <c r="I21" s="7">
-        <v>221745</v>
+        <v>258966</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
       </c>
       <c r="N21" s="7">
-        <v>454981</v>
+        <v>504483</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,49 +1944,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>16554</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>30</v>
       </c>
-      <c r="D22" s="7">
-        <v>23250</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
       <c r="I22" s="7">
-        <v>16862</v>
+        <v>24530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>40112</v>
+        <v>41084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,25 +1995,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>915</v>
+      </c>
+      <c r="D23" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>940</v>
       </c>
-      <c r="D23" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>915</v>
-      </c>
       <c r="I23" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2022,7 +2028,7 @@
         <v>1855</v>
       </c>
       <c r="N23" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
